--- a/MSE_W.xlsx
+++ b/MSE_W.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive - Rice University\Overcomplete random series priors\Advanced-Bayesian-Estimation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rice-my.sharepoint.com/personal/fb31_rice_edu/Documents/Overcomplete random series priors/Advanced-Bayesian-Estimation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60130EA-AD52-4853-A2BB-2517227F42E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
